--- a/SOFTWARE.xlsx
+++ b/SOFTWARE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VID\COMMON\BIOINFORMATICS\F1000-publication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\VID\tjensen\eclipse-projects\RSEQREP\RSEQREP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
   <si>
     <t>RSEQREP - Source Code and Third Party Open Source Software</t>
   </si>
@@ -589,6 +589,30 @@
   </si>
   <si>
     <t>http://http.debian.net/debian/pool/main/t/texlive-base/texlive-base_2017.20171031-1.debian.tar.xz; http://http.debian.net/debian/pool/main/t/texlive-extra/texlive-extra_2017.20171031-1.debian.tar.xz</t>
+  </si>
+  <si>
+    <t>libdbi-perl</t>
+  </si>
+  <si>
+    <t>Perl Database Interface (DBI)</t>
+  </si>
+  <si>
+    <t>1.634-1build1</t>
+  </si>
+  <si>
+    <t>https://packages.ubuntu.com/source/xenial/libdbi-perl</t>
+  </si>
+  <si>
+    <t>Perl DBI driver with a self-contained RDBMS</t>
+  </si>
+  <si>
+    <t>1.50-1</t>
+  </si>
+  <si>
+    <t>https://packages.ubuntu.com/source/xenial/libdbd-sqlite3-perl</t>
+  </si>
+  <si>
+    <t>libdbd-sqlite3-perl</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>136</v>
       </c>
@@ -1828,85 +1852,113 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C54" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+    <row r="56" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B57" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="58" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C58" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A56:D56"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
